--- a/Resume_Metrics/Metrics_Comparison123/Grid/RandEnAct/2Enem/5x5/resume_metrics_comparison_by_kind_basic.xlsx
+++ b/Resume_Metrics/Metrics_Comparison123/Grid/RandEnAct/2Enem/5x5/resume_metrics_comparison_by_kind_basic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -605,6 +605,146 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>DQN_TS_basic</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>828.4 ± 238.64</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.28 ± 0.24</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.93 ± 20.34</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.13 ± 1.93 (5/5)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>{'Game 0': 'ok', 'Game 1': 'ok', 'Game 2': 'ok', 'Game 3': 'ok', 'Game 4': 'ok'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>DQN_EG_basic</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2568.4 ± 829.04</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.86 ± 0.51</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>23.02 ± 33.42</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.45 ± 2.46 (5/5)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>{'Game 0': 'ok', 'Game 1': 'ok', 'Game 2': 'ok', 'Game 3': 'ok', 'Game 4': 'ok'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>DQN_SA_basic</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>-11785.8 ± 3540.69</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>-3.93 ± 3.73</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>357.62 ± 142.86</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>51.47 ± 68.4 (5/5)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>{'Game 0': 'ok', 'Game 1': 'ok', 'Game 2': 'ok', 'Game 3': 'ok', 'Game 4': 'ok'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>DQN_BM_basic</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>-10319.0 ± 2968.07</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>-3.44 ± 0.8</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>326.35 ± 27.85</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>45.09 ± 56.34 (5/5)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>{'Game 0': 'ok', 'Game 1': 'ok', 'Game 2': 'ok', 'Game 3': 'ok', 'Game 4': 'ok'}</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
